--- a/biology/Mycologie/Vincenzo_de_Cesati/Vincenzo_de_Cesati.xlsx
+++ b/biology/Mycologie/Vincenzo_de_Cesati/Vincenzo_de_Cesati.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le baron Vincenzo de Cesati (né le 24 mai 1806 à Milan et mort le 13 février 1883 à Naples) est un botaniste italien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Vincenzo de Cesati étudie le droit et l’histoire naturelle à Vienne. Il travaille d’abord bénévolement au Collegium Nacionale de Vercelli. Il est professeur de botanique et d’évolution biologique à Naples où il dirige le Jardin botanique de 1868 à 1883.
 La plupart des plantes qu’il a récoltées sont conservées par l’Institut botanique de l’université Sapienza de Rome. Il a également contribué à l’Herbier cryptogamique italien (Erbario crittogamico Italiano, 1858-1885).
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Stirpes Italicae: iconografia universale delle piante italiane (Pirola, Milan, 1840)
 Compendio della flora italiana: compilato per cura dei professori V. Cesati, G. Passerini, E.G. Gibelli (Vallardi, Milan, trente-cinq volumes, 1868-1886). Le manuscrit de l’ouvrage est aujourd’hui conservé à Amsterdam.
